--- a/ParseJson/app/Json解析性能比较.xlsx
+++ b/ParseJson/app/Json解析性能比较.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Gson</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,131 @@
   </si>
   <si>
     <t>bean→String（ms）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否仍在维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.52.android</t>
+  </si>
+  <si>
+    <t>1.9.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，最近一次提交是2个月前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，最近一次提交是4天前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，最近一次提交是9天前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，效率中等，在10000倍数据量级及以上，效率最差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，效率最高，在10000倍数据量级及以上，效率和Jackson相差无几。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，内存占用低，峰值为3.62M，在10000倍数据量级及以上，内存占用率超过22M，并且存在明显的内存抖动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，内存占用低，峰值为2.69M，在10000倍数据量级及以上，内存占用率超过24M，并且存在明显的内存抖动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，内存占用低，峰值为4.55M，在10000倍数据量级及以上，内存占用率超过35M，并且存在明显的内存抖动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean需要有默认的构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、如果是通过GsonBuilder创建的Gson对象，那么就用自定义的TyperAdapter来完成json的解析；
+2、如果是通过new Gson()创建的Gson对象，那么就用Java反射机制来完成json的解析。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理和FastJson一致，但是在 JSON to Java pojo的步骤中，做了更加科学的check，因而能识别seta这样的小写。但是如果getA 和geta都找不到，则会抛出异常（除非把a设置为忽略）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、bean to JSON ：利用反射找到对象类的所有Get方法，然后把"get"去掉，小写化，作为JSON的每个key值，如getA对应的key值为a，而与真实的类成员名无关。
+2、JSON to bean ：先同样通过反射找到对象类所有的Set方法，然后使用无参数构造函数（所以一定要有无参数的构造函数）新建一个类对象，从JSON字符串中取出一个key如a，先大写化为A，那么从所有Set方法中找到SetA()，然后进行赋值。 如果找不到setA（seta也不行），那么该值被忽略，也不报错。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gson、FastJson、Jackson综合对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1000倍数据量级内，效率最低，在10000倍数据量级及以上，效率和FastJson相差无几。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +246,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -174,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +354,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1075,12 +1255,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="A1:J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="44.5" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="53.25" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
